--- a/01. Data/emissions_eu28_50_trees.xlsx
+++ b/01. Data/emissions_eu28_50_trees.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/stefaniadaskalaki/pCloud Drive/02.Business/CHINGU/Voyage_47_team_30/01. Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3917C0E2-44C4-1742-B6E2-BAF466563D0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3ACC033-6E1A-4C44-84D3-BD7C77BA2684}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="16500" windowHeight="16420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12300" yWindow="500" windowWidth="16500" windowHeight="16420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="emissions_eu28_50_trees" sheetId="1" r:id="rId1"/>
@@ -253,18 +253,6 @@
     <t>Idex</t>
   </si>
   <si>
-    <t>https://willforsyth.co.uk/imgs/one-tree-267.png</t>
-  </si>
-  <si>
-    <t>https://willforsyth.co.uk/imgs/two-tree-267.png</t>
-  </si>
-  <si>
-    <t>https://willforsyth.co.uk/imgs/three-tree-267.png</t>
-  </si>
-  <si>
-    <t>https://willforsyth.co.uk/imgs/four-tree-267.png</t>
-  </si>
-  <si>
     <t>emissions_rank</t>
   </si>
   <si>
@@ -277,16 +265,28 @@
     <t>High Emissions</t>
   </si>
   <si>
-    <t>https://willforsyth.co.uk/imgs/high.png</t>
+    <t>rank_images</t>
   </si>
   <si>
-    <t>https://willforsyth.co.uk/imgs/low.png</t>
+    <t>https://willforsyth.co.uk/imgs/one-tree-268x5.jpg</t>
   </si>
   <si>
-    <t>https://willforsyth.co.uk/imgs/moderate.png</t>
+    <t>https://willforsyth.co.uk/imgs/two-tree-268x5.jpg</t>
   </si>
   <si>
-    <t>rank_images</t>
+    <t>https://willforsyth.co.uk/imgs/three-tree-268x5.jpg</t>
+  </si>
+  <si>
+    <t>https://willforsyth.co.uk/imgs/four-tree-268x5.jpg</t>
+  </si>
+  <si>
+    <t>https://willforsyth.co.uk/imgs/high-x5.jpg</t>
+  </si>
+  <si>
+    <t>https://willforsyth.co.uk/imgs/low-x5.jpg</t>
+  </si>
+  <si>
+    <t>https://willforsyth.co.uk/imgs/moderate-x5.jpg</t>
   </si>
 </sst>
 </file>
@@ -1214,7 +1214,7 @@
         <v>10</v>
       </c>
       <c r="M1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
@@ -60032,7 +60032,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -60050,7 +60050,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -60058,7 +60058,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -60066,7 +60066,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -60074,7 +60074,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -60093,7 +60093,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -60104,34 +60104,34 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1" t="s">
         <v>75</v>
-      </c>
-      <c r="B1" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
